--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,17 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>Before Carry</t>
-  </si>
-  <si>
-    <t>Student Name:</t>
-  </si>
-  <si>
-    <t>Student Git Address:</t>
   </si>
   <si>
     <t>All Graphics API Objects cleaned up in memory</t>
@@ -149,7 +143,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -165,7 +159,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,7 +175,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,7 +191,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -324,16 +318,36 @@
   <si>
     <t>Student Confidence(X)</t>
   </si>
+  <si>
+    <t>Student Git Address: https://github.com/paspy/FSGraphicProject.git</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student Name: Chen Lu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -341,14 +355,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +370,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,6 +380,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -536,15 +557,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,7 +615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,9 +647,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,6 +682,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -827,32 +858,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="94" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="9" width="25.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="9" width="25.875" customWidth="1"/>
+    <col min="10" max="10" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="12" max="12" width="24.125" customWidth="1"/>
+    <col min="13" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -866,9 +897,9 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -883,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -904,9 +935,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -915,10 +946,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>28</v>
@@ -931,12 +962,12 @@
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
@@ -947,7 +978,9 @@
       <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G35" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
@@ -974,9 +1007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -987,7 +1020,9 @@
       <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
@@ -1004,12 +1039,12 @@
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -1044,9 +1079,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -1075,9 +1110,9 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
@@ -1109,9 +1144,9 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -1140,9 +1175,9 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
@@ -1174,9 +1209,9 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
@@ -1199,7 +1234,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="11"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1216,7 +1251,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="11"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1233,7 +1268,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="11"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1250,7 +1285,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1267,7 +1302,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="11"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1284,7 +1319,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1303,9 +1338,9 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5">
         <v>5</v>
@@ -1316,7 +1351,9 @@
       <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
@@ -1328,9 +1365,9 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
@@ -1353,9 +1390,9 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5">
         <v>5</v>
@@ -1378,9 +1415,9 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -1403,9 +1440,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
@@ -1428,9 +1465,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5">
         <v>4</v>
@@ -1441,7 +1478,9 @@
       <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
@@ -1453,9 +1492,9 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -1478,7 +1517,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1495,7 +1534,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1512,7 +1551,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1529,7 +1568,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1546,7 +1585,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>9</v>
       </c>
@@ -1565,9 +1604,9 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5">
         <v>5</v>
@@ -1578,7 +1617,9 @@
       <c r="D30" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
@@ -1590,9 +1631,9 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="5">
         <v>5</v>
@@ -1603,7 +1644,9 @@
       <c r="D31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
@@ -1615,9 +1658,9 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
@@ -1628,7 +1671,9 @@
       <c r="D32" s="5">
         <v>3</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
@@ -1640,9 +1685,9 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -1653,7 +1698,9 @@
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
@@ -1665,9 +1712,9 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -1690,9 +1737,9 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
@@ -1715,9 +1762,9 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5">
         <v>2</v>
@@ -1740,9 +1787,9 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B37" s="5">
         <v>3</v>
@@ -1765,9 +1812,9 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="5">
         <v>3</v>
@@ -1790,9 +1837,9 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B39" s="5">
         <v>5</v>
@@ -1803,7 +1850,9 @@
       <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="8">
         <f t="shared" si="1"/>
@@ -1815,9 +1864,9 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5">
         <v>3</v>
@@ -1840,7 +1889,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1857,7 +1906,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="11"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1874,7 +1923,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="11"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1891,7 +1940,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>8</v>
       </c>
@@ -1910,9 +1959,9 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B45" s="5">
         <v>5</v>
@@ -1935,9 +1984,9 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B46" s="5">
         <v>3</v>
@@ -1960,9 +2009,9 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="5">
         <v>5</v>
@@ -1985,7 +2034,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="11"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2002,7 +2051,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="11"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2019,7 +2068,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="11"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2036,7 +2085,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2053,7 +2102,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2070,7 +2119,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
@@ -2089,9 +2138,9 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="5">
         <v>3</v>
@@ -2114,9 +2163,9 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="5">
         <v>3</v>
@@ -2139,9 +2188,9 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" s="5">
         <v>5</v>
@@ -2164,9 +2213,9 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57" s="5">
         <v>5</v>
@@ -2189,7 +2238,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2206,7 +2255,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2223,7 +2272,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2240,7 +2289,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2257,7 +2306,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2274,7 +2323,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2291,7 +2340,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>6</v>
       </c>
@@ -2310,9 +2359,9 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" s="5">
         <v>2</v>
@@ -2335,9 +2384,9 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="5">
         <v>3</v>
@@ -2360,9 +2409,9 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="5">
         <v>5</v>
@@ -2385,9 +2434,9 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B68" s="5">
         <v>5</v>
@@ -2410,7 +2459,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2427,7 +2476,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2444,7 +2493,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2461,7 +2510,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2478,7 +2527,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2495,7 +2544,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="12" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2563,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="14" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2588,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2556,7 +2605,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2573,7 +2622,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="11"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2590,7 +2639,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="11"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2607,7 +2656,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="11"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2624,7 +2673,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="11"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2641,7 +2690,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="11"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2658,7 +2707,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2675,7 +2724,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="11"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2692,7 +2741,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="11"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2709,7 +2758,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2723,7 +2772,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="14"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2737,7 +2786,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="14"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2751,9 +2800,9 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
@@ -2775,7 +2824,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="5"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="14" t="s">
         <v>18</v>
       </c>
@@ -2793,9 +2842,9 @@
       <c r="K90" s="6"/>
       <c r="L90" s="5"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B91" s="6">
         <v>1</v>
@@ -2811,7 +2860,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="5"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="14"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2825,7 +2874,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="5"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="14"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2839,82 +2888,83 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="16"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="16"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="16"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="16"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="16"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="16"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="16"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="16"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="16"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="16"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="16"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="16"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="16"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="16"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="16"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="16"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="16"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="16"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="16"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="16"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="16"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="17"/>
     </row>
   </sheetData>
   <sheetProtection password="A529" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="G4:G85">
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -3012,25 +3062,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -336,6 +336,49 @@
   </si>
   <si>
     <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.braynzarsoft.net/</t>
+  </si>
+  <si>
+    <t>3D Game Programming with DirectX 11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -861,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,14 +1024,16 @@
       <c r="E4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="G4" s="8">
         <f t="shared" ref="G4:G35" si="0" xml:space="preserve"> IF(EXACT(F4,"X"),IF(EXACT(E4,"I"),$B4,IF(EXACT(E4,"II"),$C4,IF(EXACT(E4,"III"),$D4,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91))</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
@@ -1000,11 +1045,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1023,10 +1068,12 @@
       <c r="E5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>27</v>
@@ -1063,7 +1110,7 @@
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
@@ -1131,15 +1178,15 @@
       </c>
       <c r="H8" s="10">
         <f>H4+IF(H4 &lt; 22, IF(K4+H4 &gt; 22, 22- H4, K4),0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I8" s="9">
         <f>I4+IF(I4 &lt; 22, IF(H10+I4 &gt; 22, 22- I4, H10),0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1196,11 +1243,11 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
@@ -1354,10 +1401,12 @@
       <c r="E18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1481,10 +1530,12 @@
       <c r="E23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1620,10 +1671,12 @@
       <c r="E30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="G30" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1647,10 +1700,12 @@
       <c r="E31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G31" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1674,10 +1729,12 @@
       <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="G32" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1701,10 +1758,12 @@
       <c r="E33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="G33" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2151,11 +2210,15 @@
       <c r="D54" s="5">
         <v>3</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
+      <c r="E54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G54" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -2176,11 +2239,15 @@
       <c r="D55" s="5">
         <v>3</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="E55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="G55" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -2831,7 +2898,9 @@
       <c r="B90" s="6">
         <v>3</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="5"/>
@@ -2849,7 +2918,9 @@
       <c r="B91" s="6">
         <v>1</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="5"/>
@@ -2894,10 +2965,14 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A95" s="16"/>
+      <c r="A95" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A96" s="16"/>
+      <c r="A96" s="16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="16"/>
@@ -2985,7 +3060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -375,6 +375,22 @@
   </si>
   <si>
     <t>3D Game Programming with DirectX 11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -904,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1045,11 +1061,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1110,7 +1126,7 @@
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
@@ -1186,7 +1202,7 @@
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1243,11 +1259,11 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
@@ -2439,11 +2455,15 @@
       <c r="D65" s="5">
         <v>2</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="G65" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -2464,11 +2484,15 @@
       <c r="D66" s="5">
         <v>3</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
+      <c r="E66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="G66" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -3060,7 +3084,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -395,6 +395,38 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -920,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,11 +1093,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1118,7 +1150,9 @@
       <c r="D6" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -1126,7 +1160,7 @@
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
@@ -1202,7 +1236,7 @@
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1259,11 +1293,11 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
@@ -1518,11 +1552,15 @@
       <c r="D22" s="5">
         <v>3</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1572,7 +1610,9 @@
       <c r="D24" s="5">
         <v>5</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
@@ -1800,7 +1840,9 @@
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
@@ -1825,7 +1867,9 @@
       <c r="D35" s="5">
         <v>1</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
@@ -1850,7 +1894,9 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="8">
         <f t="shared" ref="G36:G67" si="1" xml:space="preserve"> IF(EXACT(F36,"X"),IF(EXACT(E36,"I"),$B36,IF(EXACT(E36,"II"),$C36,IF(EXACT(E36,"III"),$D36,0))),0)</f>
@@ -1928,10 +1974,12 @@
       <c r="E39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G39" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2047,7 +2095,9 @@
       <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="8">
         <f t="shared" si="1"/>
@@ -3084,7 +3134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -415,6 +415,10 @@
   </si>
   <si>
     <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -952,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1193,9 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
@@ -3134,7 +3140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -431,6 +431,14 @@
   </si>
   <si>
     <t>II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -956,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,11 +1105,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1164,7 +1172,7 @@
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
@@ -1242,7 +1250,7 @@
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1299,11 +1307,11 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
@@ -2006,11 +2014,15 @@
       <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
+      <c r="E40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G40" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -3140,7 +3152,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -426,19 +426,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -964,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,11 +1101,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1172,7 +1168,7 @@
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
@@ -1185,7 +1181,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1202,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="8">
@@ -1250,7 +1246,7 @@
       </c>
       <c r="J8" s="9">
         <f>J4+IF(J4 &lt; 22, IF(I10+J4 &gt; 22, 22- J4, I10),0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1307,15 +1303,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1855,12 +1851,14 @@
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G34" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1882,12 +1880,14 @@
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G35" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1909,12 +1909,14 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G36" s="8">
         <f t="shared" ref="G36:G67" si="1" xml:space="preserve"> IF(EXACT(F36,"X"),IF(EXACT(E36,"I"),$B36,IF(EXACT(E36,"II"),$C36,IF(EXACT(E36,"III"),$D36,0))),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2015,10 +2017,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="1"/>
@@ -3152,7 +3154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -35,12 +35,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="F56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Chen Lu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+This only done in the Skybox class while loading its own shader and cube map. Search keyword "loadThread.join();" to see the detail.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -406,10 +432,22 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>II</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -418,23 +456,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>II</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>II</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +528,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -960,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,7 +1150,7 @@
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
@@ -1105,7 +1162,7 @@
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1159,12 +1216,14 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5">
         <f>IF(SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91)  &gt; 22, SUMIF(E4:E85,"=I",G4:G85) + SUMIF(C90:C91, "X",B90:B91) - 22,0)</f>
@@ -1181,7 +1240,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1197,9 +1256,7 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
@@ -1307,11 +1364,11 @@
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1563,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
@@ -1621,12 +1678,14 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1909,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>81</v>
@@ -2017,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="1"/>
@@ -2115,9 +2174,7 @@
       <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="3"/>
       <c r="G45" s="8">
         <f t="shared" si="1"/>
@@ -2354,11 +2411,15 @@
       <c r="D56" s="5">
         <v>5</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
+      <c r="E56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="G56" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -2608,11 +2669,15 @@
       <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G68" s="8">
         <f t="shared" ref="G68:G85" si="2" xml:space="preserve"> IF(EXACT(F68,"X"),IF(EXACT(E68,"I"),$B68,IF(EXACT(E68,"II"),$C68,IF(EXACT(E68,"III"),$D68,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -3154,7 +3219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -473,6 +473,42 @@
   </si>
   <si>
     <t>II</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1017,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,19 +1186,19 @@
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1231,16 +1267,16 @@
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1287,11 +1323,15 @@
       <c r="D8" s="5">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="10">
         <f>H4+IF(H4 &lt; 22, IF(K4+H4 &gt; 22, 22- H4, K4),0)</f>
@@ -1360,15 +1400,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1544,11 +1584,15 @@
       <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -1594,11 +1638,15 @@
       <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2021,11 +2069,15 @@
       <c r="D38" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="G38" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2224,11 +2276,15 @@
       <c r="D47" s="5">
         <v>5</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="G47" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -3060,8 +3116,12 @@
       <c r="C90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -3080,8 +3140,12 @@
       <c r="C91" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -3219,7 +3283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -428,10 +428,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -440,10 +436,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -460,10 +452,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -472,10 +460,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>II</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -513,6 +497,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1053,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,7 +1178,7 @@
       </c>
       <c r="I4" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91))</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91))</f>
@@ -1194,7 +1186,7 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
@@ -1252,10 +1244,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -1267,11 +1259,11 @@
       </c>
       <c r="I6" s="5">
         <f>IF(SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=II",G4:G85) + SUMIF(D90:D91, "X",B90:B91) - 22,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
@@ -1324,10 +1316,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1400,7 +1392,7 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
@@ -1585,10 +1577,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
@@ -1639,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
@@ -1668,10 +1660,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
@@ -1726,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
@@ -2016,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>81</v>
@@ -2070,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="1"/>
@@ -2128,10 +2120,10 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G40" s="8">
         <f t="shared" si="1"/>
@@ -2277,10 +2269,10 @@
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G47" s="8">
         <f t="shared" si="1"/>
@@ -2468,10 +2460,10 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G56" s="8">
         <f t="shared" si="1"/>
@@ -2726,10 +2718,10 @@
         <v>5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G68" s="8">
         <f t="shared" ref="G68:G85" si="2" xml:space="preserve"> IF(EXACT(F68,"X"),IF(EXACT(E68,"I"),$B68,IF(EXACT(E68,"II"),$C68,IF(EXACT(E68,"III"),$D68,0))),0)</f>
@@ -3283,7 +3275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -35,6 +35,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="F46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The mirror does reject rendering the object that being blocked. I don't know if this fulfill the requirement.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F56" authorId="0" shapeId="0">
       <text>
         <r>
@@ -66,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -505,6 +531,18 @@
   </si>
   <si>
     <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1045,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,11 +1224,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1263,12 +1301,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1284,11 +1322,15 @@
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
@@ -1392,15 +1434,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -2218,11 +2260,15 @@
       <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
+      <c r="E45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G45" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2243,11 +2289,15 @@
       <c r="D46" s="5">
         <v>3</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
+      <c r="E46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G46" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -32,6 +32,32 @@
             <charset val="1"/>
           </rPr>
           <t>Fill out name and repo address then submit to intial turn in on the graphics II sidekick.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Chen Lu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The tesselation based on the LOD is sometime not working properly with no clue why causes that. Basicly the debug mode and release mode gave sometime different results or same results on different runs...</t>
         </r>
       </text>
     </comment>
@@ -92,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -494,51 +520,39 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>III</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>III</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>III</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>III</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>III</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>III</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1083,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,11 +1238,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1282,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>101</v>
@@ -1301,12 +1315,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1323,10 +1337,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
@@ -1361,7 +1375,7 @@
         <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
@@ -1434,15 +1448,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1619,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
@@ -1647,11 +1661,15 @@
       <c r="D20" s="5">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1672,15 +1690,11 @@
       <c r="D21" s="5">
         <v>3</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2103,15 +2117,11 @@
       <c r="D38" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
       <c r="G38" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2261,10 +2271,10 @@
         <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G45" s="8">
         <f t="shared" si="1"/>
@@ -2290,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>81</v>
@@ -2318,15 +2328,11 @@
       <c r="D47" s="5">
         <v>5</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
       <c r="G47" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2510,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>104</v>
@@ -3325,7 +3331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>III</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1097,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,11 +1250,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1315,12 +1327,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1448,15 +1460,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1664,12 +1676,10 @@
       <c r="E20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2328,11 +2338,15 @@
       <c r="D47" s="5">
         <v>5</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
+      <c r="E47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G47" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2906,11 +2920,15 @@
       <c r="D75" s="5">
         <v>5</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
+      <c r="E75" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="G75" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -3331,7 +3349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4 L6 H6:J6">
+  <conditionalFormatting sqref="L6 K4 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -32,32 +32,6 @@
             <charset val="1"/>
           </rPr>
           <t>Fill out name and repo address then submit to intial turn in on the graphics II sidekick.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Chen Lu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-The tesselation based on the LOD is sometime not working properly with no clue why causes that. Basicly the debug mode and release mode gave sometime different results or same results on different runs...</t>
         </r>
       </text>
     </comment>
@@ -1109,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Documents & Instructions/Graphics II Project Rubric.xlsx
+++ b/Documents & Instructions/Graphics II Project Rubric.xlsx
@@ -32,6 +32,33 @@
             <charset val="1"/>
           </rPr>
           <t>Fill out name and repo address then submit to intial turn in on the graphics II sidekick.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Chen Lu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+The blur effect is actually render to a full screen quad eac frame.
+</t>
         </r>
       </text>
     </comment>
@@ -92,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="120">
   <si>
     <t>Apply a post process routine via pixel shader (eg Blur or Custom Pixel Maipulations)</t>
   </si>
@@ -539,6 +566,10 @@
   </si>
   <si>
     <t>III</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1083,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,11 +1255,11 @@
       </c>
       <c r="K4" s="5">
         <f>SUM(H6,I6,J6)</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L4" s="9">
         <f>SUM(G4:G85) + SUMIF(C90:C91, "X",B90:B91) + SUMIF(D90:D91, "X",B90:B91) + SUMIF(E90:E91, "X",B90:B91)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1301,12 +1332,12 @@
       </c>
       <c r="J6" s="5">
         <f>IF(SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) &gt; 22, SUMIF(E4:E85,"=III",G4:G85) + SUMIF(E90:E91, "X",B90:B91) - 22,0)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="9">
         <f>IF(L4 &gt; 66, SUM(-66,L4),0)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -1434,15 +1465,15 @@
       </c>
       <c r="H10" s="5">
         <f>IF(K4+H4 - 22 &gt; 0, K4+H4 - 22, 0)</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I10" s="5">
         <f>IF(H10+I4 - 22 &gt; 0, H10+I4 - 22, 0)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J10" s="5">
         <f>IF(I10+J4 - 22 &gt; 0, I10+J4 - 22, 0)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1650,10 +1681,12 @@
       <c r="E20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -3323,7 +3356,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 K4 H6:J6">
+  <conditionalFormatting sqref="K4 L6 H6:J6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
